--- a/Tutorial8/Kedai.xlsx
+++ b/Tutorial8/Kedai.xlsx
@@ -90,7 +90,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -98,7 +98,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,160 +419,160 @@
       <c r="A2" s="2">
         <v>41852</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.241860569646806</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1.13103679199361</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.421856803578467</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0.0472702070246065</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.63573380888029</v>
+      <c r="B2">
+        <v>0.908207243479067</v>
+      </c>
+      <c r="C2">
+        <v>-1.91591888025532</v>
+      </c>
+      <c r="D2">
+        <v>0.0977269034721517</v>
+      </c>
+      <c r="E2">
+        <v>0.505240690751951</v>
+      </c>
+      <c r="F2">
+        <v>0.28863544950713</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>41853</v>
       </c>
-      <c r="B3" s="3">
-        <v>-0.79477452240781</v>
-      </c>
-      <c r="C3" s="3">
-        <v>-1.02314803634592</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-0.744297668169335</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1.01961739456349</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.671866691283172</v>
+      <c r="B3">
+        <v>0.254457989881894</v>
+      </c>
+      <c r="C3">
+        <v>0.943705158824081</v>
+      </c>
+      <c r="D3">
+        <v>0.395888711267485</v>
+      </c>
+      <c r="E3">
+        <v>-0.486971088557899</v>
+      </c>
+      <c r="F3">
+        <v>0.0752807349804405</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>41854</v>
       </c>
-      <c r="B4" s="3">
-        <v>2.53255735043404</v>
-      </c>
-      <c r="C4" s="3">
-        <v>-1.84713603004651</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.133496177528789</v>
-      </c>
-      <c r="E4" s="3">
-        <v>-0.189439876588464</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.538675526254826</v>
+      <c r="B4">
+        <v>0.115361492859104</v>
+      </c>
+      <c r="C4">
+        <v>-0.958970486003298</v>
+      </c>
+      <c r="D4">
+        <v>-0.825461617933892</v>
+      </c>
+      <c r="E4">
+        <v>-0.130196162871926</v>
+      </c>
+      <c r="F4">
+        <v>0.236358375227934</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>41855</v>
       </c>
-      <c r="B5" s="3">
-        <v>-0.828002576685626</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1.19553356259955</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.746350006110409</v>
-      </c>
-      <c r="E5" s="3">
-        <v>-1.62954297630031</v>
-      </c>
-      <c r="F5" s="3">
-        <v>-1.05329926329706</v>
+      <c r="B5">
+        <v>0.634680278251681</v>
+      </c>
+      <c r="C5">
+        <v>-0.117783739285361</v>
+      </c>
+      <c r="D5">
+        <v>-0.29100336913631</v>
+      </c>
+      <c r="E5">
+        <v>2.0752173395827</v>
+      </c>
+      <c r="F5">
+        <v>-0.0635088092977894</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>41856</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.27386544209745</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.84107952136214</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.0373965825456253</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.790997746873668</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.743659174875927</v>
+      <c r="B6">
+        <v>-0.189920985378405</v>
+      </c>
+      <c r="C6">
+        <v>-0.902058079605355</v>
+      </c>
+      <c r="D6">
+        <v>-0.677467653916071</v>
+      </c>
+      <c r="E6">
+        <v>0.155232477789316</v>
+      </c>
+      <c r="F6">
+        <v>-1.28534372272596</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>41857</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.0146890824101652</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.17859304834851</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-0.698371587828522</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.967009108210466</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-1.24773754299895</v>
+      <c r="B7">
+        <v>1.30947528114391</v>
+      </c>
+      <c r="C7">
+        <v>0.753785059232997</v>
+      </c>
+      <c r="D7">
+        <v>0.851052093168742</v>
+      </c>
+      <c r="E7">
+        <v>-0.564645897775217</v>
+      </c>
+      <c r="F7">
+        <v>0.361620175833087</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>41858</v>
       </c>
-      <c r="B8" s="3">
-        <v>-0.404841801821777</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.0310878256188409</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.255879132696366</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.87966665858077</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.47872574407027</v>
+      <c r="B8">
+        <v>0.644291661257818</v>
+      </c>
+      <c r="C8">
+        <v>-1.10334612020573</v>
+      </c>
+      <c r="D8">
+        <v>-0.183651710932936</v>
+      </c>
+      <c r="E8">
+        <v>1.27093484038643</v>
+      </c>
+      <c r="F8">
+        <v>-2.39379768244453</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>41859</v>
       </c>
-      <c r="B9" s="3">
-        <v>-1.05435935860962</v>
-      </c>
-      <c r="C9" s="3">
-        <v>-0.162642587950611</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.303052593471682</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.43858610067096</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.979570255513532</v>
+      <c r="B9">
+        <v>-0.512126971706344</v>
+      </c>
+      <c r="C9">
+        <v>0.147981838125215</v>
+      </c>
+      <c r="D9">
+        <v>-2.00385122453905</v>
+      </c>
+      <c r="E9">
+        <v>1.74055597984409</v>
+      </c>
+      <c r="F9">
+        <v>-0.770736673149049</v>
       </c>
     </row>
   </sheetData>
